--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -483,7 +483,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -713,6 +713,15 @@
     <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="LP7796-8"/&gt;
+    &lt;display value="内視鏡"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
@@ -734,22 +743,13 @@
     <t>DiagnosticReport.category:endoscopy.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category:endoscopy.coding.version</t>
   </si>
   <si>
     <t>DiagnosticReport.category:endoscopy.coding.code</t>
   </si>
   <si>
-    <t>LP7796-8</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category:endoscopy.coding.display</t>
-  </si>
-  <si>
-    <t>内視鏡</t>
   </si>
   <si>
     <t>DiagnosticReport.category:endoscopy.coding.userSelected</t>
@@ -1550,7 +1550,7 @@
     <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>41</v>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>152</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>158</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>163</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>172</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>173</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>174</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>50</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>41</v>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>50</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>194</v>
@@ -5383,7 +5383,7 @@
         <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>41</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>200</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>209</v>
@@ -5683,14 +5683,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5712,13 +5712,13 @@
         <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5744,11 +5744,11 @@
         <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5766,7 +5766,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>50</v>
@@ -5781,28 +5781,28 @@
         <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5821,19 +5821,19 @@
         <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -5882,7 +5882,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5897,28 +5897,28 @@
         <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5937,19 +5937,19 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -5998,7 +5998,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6013,28 +6013,28 @@
         <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6053,19 +6053,19 @@
         <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6114,7 +6114,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6129,28 +6129,28 @@
         <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6169,19 +6169,19 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6230,7 +6230,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6248,25 +6248,25 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6285,19 +6285,19 @@
         <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6346,7 +6346,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6361,28 +6361,28 @@
         <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6401,19 +6401,19 @@
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="O43" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6462,7 +6462,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6477,24 +6477,24 @@
         <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AN43" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6517,19 +6517,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6578,7 +6578,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6596,10 +6596,10 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6607,14 +6607,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6633,19 +6633,19 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -6694,7 +6694,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6712,10 +6712,10 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6723,10 +6723,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6749,16 +6749,16 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6808,7 +6808,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6829,7 +6829,7 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6837,14 +6837,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6863,19 +6863,19 @@
         <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -6924,7 +6924,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6942,10 +6942,10 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -6953,10 +6953,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7065,10 +7065,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7179,14 +7179,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7208,10 +7208,10 @@
         <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>99</v>
@@ -7266,7 +7266,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7295,10 +7295,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7324,16 +7324,16 @@
         <v>153</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7382,7 +7382,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7403,7 +7403,7 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7411,10 +7411,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7437,13 +7437,13 @@
         <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7494,7 +7494,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>50</v>
@@ -7515,7 +7515,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7523,14 +7523,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7552,16 +7552,16 @@
         <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7610,7 +7610,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7628,10 +7628,10 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7639,10 +7639,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7668,13 +7668,13 @@
         <v>141</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -7722,7 +7722,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7740,10 +7740,10 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7751,10 +7751,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7777,19 +7777,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -7838,7 +7838,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7856,10 +7856,10 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -483,7 +483,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -1550,7 +1550,7 @@
     <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -483,7 +483,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -717,7 +717,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="LP7796-8"/&gt;
-    &lt;display value="内視鏡"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1550,7 +1549,7 @@
     <col min="25" max="25" width="55.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4356,10 +4355,10 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
